--- a/programas/Projects/5_DecisionTree_2/log^GSPC.xlsx
+++ b/programas/Projects/5_DecisionTree_2/log^GSPC.xlsx
@@ -41,6 +41,24 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data60" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data62" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data64" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data66" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data68" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data70" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data72" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data74" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data76" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data78" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data80" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data82" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data84" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data86" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data88" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data90" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data92" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data94" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data96" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data98" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data100" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1660,6 +1678,926 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1701,98 +2639,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Senal</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Objetivo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ExitReason</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Senal</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Objetivo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ExitReason</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
